--- a/scsi2/scans/Scanner File Size.xlsx
+++ b/scsi2/scans/Scanner File Size.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/antoine/apple iigs/crossdevtools/source/scsi2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/antoine/apple iigs/crossdevtools/source/scsi2/scans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33388224-E115-4D4A-97DF-BE940AD27EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F79732-4C18-304F-9982-04D4200F574D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A858CC69-06A7-744D-A325-4FC29BE3E03D}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,7 +447,7 @@
         <v>13</v>
       </c>
       <c r="B1">
-        <v>8.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -455,7 +455,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -472,7 +472,7 @@
       </c>
       <c r="B5">
         <f>B1*B10</f>
-        <v>10200</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -489,7 +489,7 @@
       </c>
       <c r="B8">
         <f>B2*B10</f>
-        <v>13200</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -513,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -530,7 +530,7 @@
       </c>
       <c r="B15">
         <f>IF(B12=75,16,IF(B12=150,8,0))</f>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -539,7 +539,7 @@
       </c>
       <c r="B17">
         <f>B5-B4+B15</f>
-        <v>10216</v>
+        <v>6008</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -548,7 +548,7 @@
       </c>
       <c r="B18">
         <f>B8-B7</f>
-        <v>13200</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
       </c>
       <c r="B20">
         <f>ROUNDDOWN(((B17*B12)/B10)*(B14/8),0)</f>
-        <v>638</v>
+        <v>751</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -566,7 +566,7 @@
       </c>
       <c r="B21">
         <f>(B18*B13)/B10</f>
-        <v>825</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -575,7 +575,7 @@
       </c>
       <c r="B22">
         <f>B20*B21</f>
-        <v>526350</v>
+        <v>394275</v>
       </c>
     </row>
   </sheetData>

--- a/scsi2/scans/Scanner File Size.xlsx
+++ b/scsi2/scans/Scanner File Size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/antoine/apple iigs/crossdevtools/source/scsi2/scans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F79732-4C18-304F-9982-04D4200F574D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB283D66-68EB-2642-BC6D-88E081D9EE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A858CC69-06A7-744D-A325-4FC29BE3E03D}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -513,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -521,7 +521,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -530,7 +530,7 @@
       </c>
       <c r="B15">
         <f>IF(B12=75,16,IF(B12=150,8,0))</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -539,7 +539,7 @@
       </c>
       <c r="B17">
         <f>B5-B4+B15</f>
-        <v>6008</v>
+        <v>6016</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
       </c>
       <c r="B20">
         <f>ROUNDDOWN(((B17*B12)/B10)*(B14/8),0)</f>
-        <v>751</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -566,7 +566,7 @@
       </c>
       <c r="B21">
         <f>(B18*B13)/B10</f>
-        <v>525</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -575,7 +575,7 @@
       </c>
       <c r="B22">
         <f>B20*B21</f>
-        <v>394275</v>
+        <v>296100</v>
       </c>
     </row>
   </sheetData>

--- a/scsi2/scans/Scanner File Size.xlsx
+++ b/scsi2/scans/Scanner File Size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/antoine/apple iigs/crossdevtools/source/scsi2/scans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB283D66-68EB-2642-BC6D-88E081D9EE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D13908A-F4EA-CF43-961F-249952BA6291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A858CC69-06A7-744D-A325-4FC29BE3E03D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>xStart</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>delta</t>
+  </si>
+  <si>
+    <t>in hex</t>
   </si>
 </sst>
 </file>
@@ -118,8 +121,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE3084D-0904-4649-B2CB-6E7C05D81B59}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,7 +453,7 @@
         <v>13</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -455,7 +461,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -472,7 +478,7 @@
       </c>
       <c r="B5">
         <f>B1*B10</f>
-        <v>6000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -489,7 +495,7 @@
       </c>
       <c r="B8">
         <f>B2*B10</f>
-        <v>4200</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -539,7 +545,7 @@
       </c>
       <c r="B17">
         <f>B5-B4+B15</f>
-        <v>6016</v>
+        <v>7216</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -548,7 +554,7 @@
       </c>
       <c r="B18">
         <f>B8-B7</f>
-        <v>4200</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -557,7 +563,7 @@
       </c>
       <c r="B20">
         <f>ROUNDDOWN(((B17*B12)/B10)*(B14/8),0)</f>
-        <v>1128</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -566,7 +572,7 @@
       </c>
       <c r="B21">
         <f>(B18*B13)/B10</f>
-        <v>262.5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -575,7 +581,16 @@
       </c>
       <c r="B22">
         <f>B20*B21</f>
-        <v>296100</v>
+        <v>405900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>DEC2HEX(B22,6)</f>
+        <v>06318C</v>
       </c>
     </row>
   </sheetData>
